--- a/GSWbusiness.xlsx
+++ b/GSWbusiness.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="1"/>
@@ -4870,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O70"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
